--- a/biology/Botanique/Salix_cordata/Salix_cordata.xlsx
+++ b/biology/Botanique/Salix_cordata/Salix_cordata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix cordata
-Salix cordata (le saule des dunes de sable, le saule velu, le saule à feuilles en forme de cœur ou, en anglais, heartleaf willow) est une espèce d'arbuste vivace d'un mètre à 3,5 m de hauteur[2]. 
+Salix cordata (le saule des dunes de sable, le saule velu, le saule à feuilles en forme de cœur ou, en anglais, heartleaf willow) est une espèce d'arbuste vivace d'un mètre à 3,5 m de hauteur. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix cordata dépasse rarement deux mètres.
-La plante est originaire des régions du nord-est du continent nord-américain. Il se trouve sur les dunes de sable, les berges des rivières et les rives des lacs, dans des sols limoneux ou à graviers[3].
+La plante est originaire des régions du nord-est du continent nord-américain. Il se trouve sur les dunes de sable, les berges des rivières et les rives des lacs, dans des sols limoneux ou à graviers.
 </t>
         </is>
       </c>
